--- a/QuantLibXL/Data/XLS/030_CapVolBootstrap/010_Quotes/EUR_010_FuturesOptionQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/030_CapVolBootstrap/010_Quotes/EUR_010_FuturesOptionQuotes.xlsx
@@ -10,9 +10,6 @@
     <sheet name="General Settings" sheetId="2" r:id="rId1"/>
     <sheet name="Quotes" sheetId="5" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$16</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$10</definedName>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Currency</t>
   </si>
@@ -103,6 +100,9 @@
   <si>
     <t>Additional Settings</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -825,22 +825,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1135,7 +1119,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="10" customWidth="1"/>
@@ -1147,13 +1131,13 @@
     <col min="8" max="16384" width="8" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="12.75">
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="15.75">
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="79" t="s">
         <v>14</v>
@@ -1162,14 +1146,14 @@
       <c r="D3" s="80"/>
       <c r="E3" s="81"/>
     </row>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="65"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="66"/>
     </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="65"/>
       <c r="C5" s="14" t="s">
@@ -1178,7 +1162,7 @@
       <c r="D5" s="15"/>
       <c r="E5" s="67"/>
     </row>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="65"/>
       <c r="C6" s="14" t="s">
@@ -1189,7 +1173,7 @@
       </c>
       <c r="E6" s="67"/>
     </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="65"/>
       <c r="C7" s="14" t="s">
@@ -1200,7 +1184,7 @@
       </c>
       <c r="E7" s="67"/>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="65"/>
       <c r="C8" s="14" t="s">
@@ -1211,19 +1195,18 @@
       </c>
       <c r="E8" s="67"/>
     </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="65"/>
       <c r="C9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="16" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\030_CapVolBootstrap\010_Quotes\</v>
+      <c r="D9" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="E9" s="67"/>
     </row>
-    <row r="10" spans="1:5" s="18" customFormat="1" ht="12.75">
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="65"/>
       <c r="C10" s="14" t="s">
@@ -1234,14 +1217,14 @@
       </c>
       <c r="E10" s="67"/>
     </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="12.75">
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="68"/>
       <c r="C11" s="69"/>
       <c r="D11" s="69"/>
       <c r="E11" s="70"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="79" t="s">
         <v>23</v>
       </c>
@@ -1249,13 +1232,13 @@
       <c r="D13" s="80"/>
       <c r="E13" s="81"/>
     </row>
-    <row r="14" spans="1:5" ht="12.75">
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="71"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="72"/>
     </row>
-    <row r="15" spans="1:5" ht="12.75">
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="73"/>
       <c r="C15" s="34" t="s">
         <v>5</v>
@@ -1265,7 +1248,7 @@
       </c>
       <c r="E15" s="74"/>
     </row>
-    <row r="16" spans="1:5" ht="12.75">
+    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="73"/>
       <c r="C16" s="36" t="s">
         <v>0</v>
@@ -1275,7 +1258,7 @@
       </c>
       <c r="E16" s="74"/>
     </row>
-    <row r="17" spans="2:5" ht="12.75">
+    <row r="17" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="73"/>
       <c r="C17" s="36" t="s">
         <v>11</v>
@@ -1285,7 +1268,7 @@
       </c>
       <c r="E17" s="75"/>
     </row>
-    <row r="18" spans="2:5" ht="12.75">
+    <row r="18" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="73"/>
       <c r="C18" s="39" t="s">
         <v>12</v>
@@ -1295,13 +1278,13 @@
       </c>
       <c r="E18" s="75"/>
     </row>
-    <row r="19" spans="2:5" ht="12.75">
+    <row r="19" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="73"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="75"/>
     </row>
-    <row r="20" spans="2:5" ht="12.75">
+    <row r="20" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="73"/>
       <c r="C20" s="41" t="s">
         <v>10</v>
@@ -1311,7 +1294,7 @@
       </c>
       <c r="E20" s="74"/>
     </row>
-    <row r="21" spans="2:5" ht="12.75">
+    <row r="21" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="73"/>
       <c r="C21" s="43" t="str">
         <f t="array" ref="C21:C28">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)+FrontFutureRollingDays,D21:D28)</f>
@@ -1322,7 +1305,7 @@
       </c>
       <c r="E21" s="74"/>
     </row>
-    <row r="22" spans="2:5" ht="12.75">
+    <row r="22" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="73"/>
       <c r="C22" s="44" t="str">
         <v>Z3</v>
@@ -1332,7 +1315,7 @@
       </c>
       <c r="E22" s="75"/>
     </row>
-    <row r="23" spans="2:5" ht="12.75">
+    <row r="23" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="73"/>
       <c r="C23" s="44" t="str">
         <v>H4</v>
@@ -1342,7 +1325,7 @@
       </c>
       <c r="E23" s="75"/>
     </row>
-    <row r="24" spans="2:5" ht="12.75">
+    <row r="24" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="73"/>
       <c r="C24" s="44" t="str">
         <v>M4</v>
@@ -1352,7 +1335,7 @@
       </c>
       <c r="E24" s="75"/>
     </row>
-    <row r="25" spans="2:5" ht="12.75">
+    <row r="25" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="73"/>
       <c r="C25" s="44" t="str">
         <v>U4</v>
@@ -1362,7 +1345,7 @@
       </c>
       <c r="E25" s="75"/>
     </row>
-    <row r="26" spans="2:5" ht="12.75">
+    <row r="26" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="73"/>
       <c r="C26" s="44" t="str">
         <v>Z4</v>
@@ -1372,7 +1355,7 @@
       </c>
       <c r="E26" s="75"/>
     </row>
-    <row r="27" spans="2:5" ht="12.75">
+    <row r="27" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="73"/>
       <c r="C27" s="44" t="str">
         <v>H5</v>
@@ -1382,7 +1365,7 @@
       </c>
       <c r="E27" s="75"/>
     </row>
-    <row r="28" spans="2:5" ht="12.75">
+    <row r="28" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="73"/>
       <c r="C28" s="45" t="str">
         <v>M5</v>
@@ -1392,7 +1375,7 @@
       </c>
       <c r="E28" s="75"/>
     </row>
-    <row r="29" spans="2:5" ht="12.75">
+    <row r="29" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="76"/>
       <c r="C29" s="77"/>
       <c r="D29" s="77"/>
@@ -1424,7 +1407,7 @@
       <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
@@ -1443,8 +1426,8 @@
     <col min="40" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" ht="12" thickBot="1"/>
-    <row r="2" spans="2:39" ht="12" thickBot="1">
+    <row r="1" spans="2:39" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:39" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
@@ -1560,7 +1543,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="3" spans="2:39">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1677,7 +1660,7 @@
         <v>EURFUTU3_CALL_94000</v>
       </c>
     </row>
-    <row r="4" spans="2:39">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B4" s="24"/>
       <c r="C4" s="2" t="str">
         <v>EURFUTZ3_CALL_98500</v>
@@ -1791,7 +1774,7 @@
         <v>EURFUTZ3_CALL_94000</v>
       </c>
     </row>
-    <row r="5" spans="2:39">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B5" s="24"/>
       <c r="C5" s="2" t="str">
         <v>EURFUTH4_CALL_98500</v>
@@ -1905,7 +1888,7 @@
         <v>EURFUTH4_CALL_94000</v>
       </c>
     </row>
-    <row r="6" spans="2:39">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B6" s="24"/>
       <c r="C6" s="2" t="str">
         <v>EURFUTM4_CALL_98500</v>
@@ -2019,7 +2002,7 @@
         <v>EURFUTM4_CALL_94000</v>
       </c>
     </row>
-    <row r="7" spans="2:39">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B7" s="24"/>
       <c r="C7" s="3" t="str">
         <v>EURFUTU4_CALL_98500</v>
@@ -2133,7 +2116,7 @@
         <v>EURFUTU4_CALL_94000</v>
       </c>
     </row>
-    <row r="8" spans="2:39">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B8" s="24"/>
       <c r="C8" s="3" t="str">
         <v>EURFUTZ4_CALL_98500</v>
@@ -2247,7 +2230,7 @@
         <v>EURFUTZ4_CALL_94000</v>
       </c>
     </row>
-    <row r="9" spans="2:39">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="3" t="str">
         <v>EURFUTH5_CALL_98500</v>
@@ -2361,7 +2344,7 @@
         <v>EURFUTH5_CALL_94000</v>
       </c>
     </row>
-    <row r="10" spans="2:39" ht="12" thickBot="1">
+    <row r="10" spans="2:39" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="25"/>
       <c r="C10" s="5" t="str">
         <v>EURFUTM5_CALL_98500</v>
@@ -2475,7 +2458,7 @@
         <v>EURFUTM5_CALL_94000</v>
       </c>
     </row>
-    <row r="11" spans="2:39">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
@@ -2592,7 +2575,7 @@
         <v>EURFUTU3_PUT_94000</v>
       </c>
     </row>
-    <row r="12" spans="2:39">
+    <row r="12" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B12" s="24"/>
       <c r="C12" s="2" t="str">
         <v>EURFUTZ3_PUT_98500</v>
@@ -2706,7 +2689,7 @@
         <v>EURFUTZ3_PUT_94000</v>
       </c>
     </row>
-    <row r="13" spans="2:39">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B13" s="24"/>
       <c r="C13" s="2" t="str">
         <v>EURFUTH4_PUT_98500</v>
@@ -2820,7 +2803,7 @@
         <v>EURFUTH4_PUT_94000</v>
       </c>
     </row>
-    <row r="14" spans="2:39">
+    <row r="14" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B14" s="24"/>
       <c r="C14" s="2" t="str">
         <v>EURFUTM4_PUT_98500</v>
@@ -2934,7 +2917,7 @@
         <v>EURFUTM4_PUT_94000</v>
       </c>
     </row>
-    <row r="15" spans="2:39">
+    <row r="15" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B15" s="24"/>
       <c r="C15" s="3" t="str">
         <v>EURFUTU4_PUT_98500</v>
@@ -3048,7 +3031,7 @@
         <v>EURFUTU4_PUT_94000</v>
       </c>
     </row>
-    <row r="16" spans="2:39">
+    <row r="16" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B16" s="24"/>
       <c r="C16" s="3" t="str">
         <v>EURFUTZ4_PUT_98500</v>
@@ -3162,7 +3145,7 @@
         <v>EURFUTZ4_PUT_94000</v>
       </c>
     </row>
-    <row r="17" spans="2:39">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B17" s="24"/>
       <c r="C17" s="3" t="str">
         <v>EURFUTH5_PUT_98500</v>
@@ -3276,7 +3259,7 @@
         <v>EURFUTH5_PUT_94000</v>
       </c>
     </row>
-    <row r="18" spans="2:39" ht="12" thickBot="1">
+    <row r="18" spans="2:39" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="25"/>
       <c r="C18" s="5" t="str">
         <v>EURFUTM5_PUT_98500</v>
@@ -3390,7 +3373,7 @@
         <v>EURFUTM5_PUT_94000</v>
       </c>
     </row>
-    <row r="19" spans="2:39" ht="12" thickBot="1">
+    <row r="19" spans="2:39" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -3429,7 +3412,7 @@
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
     </row>
-    <row r="20" spans="2:39" ht="12" thickBot="1">
+    <row r="20" spans="2:39" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>13</v>
       </c>
@@ -3473,7 +3456,7 @@
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
     </row>
-    <row r="21" spans="2:39">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
@@ -3626,7 +3609,7 @@
         <v>EURFUTU3_CALL_94000#0001</v>
       </c>
     </row>
-    <row r="22" spans="2:39">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B22" s="24"/>
       <c r="C22" s="2" t="str">
         <f>_xll.qlSimpleQuote(C4,,$C$20,Permanent,Trigger,ObjectOverwrite)</f>
@@ -3777,7 +3760,7 @@
         <v>EURFUTZ3_CALL_94000#0001</v>
       </c>
     </row>
-    <row r="23" spans="2:39">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B23" s="24"/>
       <c r="C23" s="2" t="str">
         <f>_xll.qlSimpleQuote(C5,,$C$20,Permanent,Trigger,ObjectOverwrite)</f>
@@ -3928,7 +3911,7 @@
         <v>EURFUTH4_CALL_94000#0000</v>
       </c>
     </row>
-    <row r="24" spans="2:39">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B24" s="24"/>
       <c r="C24" s="2" t="str">
         <f>_xll.qlSimpleQuote(C6,,$C$20,Permanent,Trigger,ObjectOverwrite)</f>
@@ -4079,7 +4062,7 @@
         <v>EURFUTM4_CALL_94000#0000</v>
       </c>
     </row>
-    <row r="25" spans="2:39">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B25" s="24"/>
       <c r="C25" s="3" t="str">
         <f>_xll.qlSimpleQuote(C7,,$C$20,Permanent,Trigger,ObjectOverwrite)</f>
@@ -4230,7 +4213,7 @@
         <v>EURFUTU4_CALL_94000#0000</v>
       </c>
     </row>
-    <row r="26" spans="2:39">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B26" s="24"/>
       <c r="C26" s="3" t="str">
         <f>_xll.qlSimpleQuote(C8,,$C$20,Permanent,Trigger,ObjectOverwrite)</f>
@@ -4381,7 +4364,7 @@
         <v>EURFUTZ4_CALL_94000#0001</v>
       </c>
     </row>
-    <row r="27" spans="2:39">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B27" s="24"/>
       <c r="C27" s="3" t="str">
         <f>_xll.qlSimpleQuote(C9,,$C$20,Permanent,Trigger,ObjectOverwrite)</f>
@@ -4532,7 +4515,7 @@
         <v>EURFUTH5_CALL_94000#0000</v>
       </c>
     </row>
-    <row r="28" spans="2:39" ht="12" thickBot="1">
+    <row r="28" spans="2:39" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="25"/>
       <c r="C28" s="5" t="str">
         <f>_xll.qlSimpleQuote(C10,,$C$20,Permanent,Trigger,ObjectOverwrite)</f>
@@ -4683,7 +4666,7 @@
         <v>EURFUTM5_CALL_94000#0000</v>
       </c>
     </row>
-    <row r="29" spans="2:39">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>7</v>
       </c>
@@ -4836,7 +4819,7 @@
         <v>EURFUTU3_PUT_94000#0000</v>
       </c>
     </row>
-    <row r="30" spans="2:39">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B30" s="24"/>
       <c r="C30" s="2" t="str">
         <f>_xll.qlSimpleQuote(C12,,$C$20,Permanent,Trigger,ObjectOverwrite)</f>
@@ -4987,7 +4970,7 @@
         <v>EURFUTZ3_PUT_94000#0000</v>
       </c>
     </row>
-    <row r="31" spans="2:39">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B31" s="24"/>
       <c r="C31" s="2" t="str">
         <f>_xll.qlSimpleQuote(C13,,$C$20,Permanent,Trigger,ObjectOverwrite)</f>
@@ -5138,7 +5121,7 @@
         <v>EURFUTH4_PUT_94000#0000</v>
       </c>
     </row>
-    <row r="32" spans="2:39">
+    <row r="32" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B32" s="24"/>
       <c r="C32" s="2" t="str">
         <f>_xll.qlSimpleQuote(C14,,$C$20,Permanent,Trigger,ObjectOverwrite)</f>
@@ -5289,7 +5272,7 @@
         <v>EURFUTM4_PUT_94000#0000</v>
       </c>
     </row>
-    <row r="33" spans="2:39">
+    <row r="33" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B33" s="24"/>
       <c r="C33" s="3" t="str">
         <f>_xll.qlSimpleQuote(C15,,$C$20,Permanent,Trigger,ObjectOverwrite)</f>
@@ -5440,7 +5423,7 @@
         <v>EURFUTU4_PUT_94000#0001</v>
       </c>
     </row>
-    <row r="34" spans="2:39">
+    <row r="34" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B34" s="24"/>
       <c r="C34" s="3" t="str">
         <f>_xll.qlSimpleQuote(C16,,$C$20,Permanent,Trigger,ObjectOverwrite)</f>
@@ -5591,7 +5574,7 @@
         <v>EURFUTZ4_PUT_94000#0000</v>
       </c>
     </row>
-    <row r="35" spans="2:39">
+    <row r="35" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B35" s="24"/>
       <c r="C35" s="3" t="str">
         <f>_xll.qlSimpleQuote(C17,,$C$20,Permanent,Trigger,ObjectOverwrite)</f>
@@ -5742,7 +5725,7 @@
         <v>EURFUTH5_PUT_94000#0001</v>
       </c>
     </row>
-    <row r="36" spans="2:39" ht="12" thickBot="1">
+    <row r="36" spans="2:39" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="25"/>
       <c r="C36" s="5" t="str">
         <f>_xll.qlSimpleQuote(C18,,$C$20,Permanent,Trigger,ObjectOverwrite)</f>
@@ -5893,7 +5876,7 @@
         <v>EURFUTM5_PUT_94000#0001</v>
       </c>
     </row>
-    <row r="37" spans="2:39">
+    <row r="37" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>21</v>
       </c>
@@ -5935,7 +5918,7 @@
       <c r="AL37" s="22"/>
       <c r="AM37" s="23"/>
     </row>
-    <row r="38" spans="2:39">
+    <row r="38" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B38" s="63" t="str">
         <f t="array" ref="B38:B45">Currency&amp;"FUT3M"&amp;'General Settings'!$C$21:$C$28</f>
         <v>EURFUT3MU3</v>
@@ -6089,7 +6072,7 @@
         <v>EURFUT3MU3_STDDEV_94000#0000</v>
       </c>
     </row>
-    <row r="39" spans="2:39">
+    <row r="39" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B39" s="63" t="str">
         <v>EURFUT3MZ3</v>
       </c>
@@ -6242,7 +6225,7 @@
         <v>EURFUT3MZ3_STDDEV_94000#0000</v>
       </c>
     </row>
-    <row r="40" spans="2:39">
+    <row r="40" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B40" s="63" t="str">
         <v>EURFUT3MH4</v>
       </c>
@@ -6395,7 +6378,7 @@
         <v>EURFUT3MH4_STDDEV_94000#0000</v>
       </c>
     </row>
-    <row r="41" spans="2:39">
+    <row r="41" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B41" s="63" t="str">
         <v>EURFUT3MM4</v>
       </c>
@@ -6548,7 +6531,7 @@
         <v>EURFUT3MM4_STDDEV_94000#0000</v>
       </c>
     </row>
-    <row r="42" spans="2:39">
+    <row r="42" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B42" s="63" t="str">
         <v>EURFUT3MU4</v>
       </c>
@@ -6701,7 +6684,7 @@
         <v>EURFUT3MU4_STDDEV_94000#0000</v>
       </c>
     </row>
-    <row r="43" spans="2:39">
+    <row r="43" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B43" s="63" t="str">
         <v>EURFUT3MZ4</v>
       </c>
@@ -6854,7 +6837,7 @@
         <v>EURFUT3MZ4_STDDEV_94000#0000</v>
       </c>
     </row>
-    <row r="44" spans="2:39">
+    <row r="44" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B44" s="63" t="str">
         <v>EURFUT3MH5</v>
       </c>
@@ -7007,7 +6990,7 @@
         <v>EURFUT3MH5_STDDEV_94000#0000</v>
       </c>
     </row>
-    <row r="45" spans="2:39" ht="12" thickBot="1">
+    <row r="45" spans="2:39" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="64" t="str">
         <v>EURFUT3MM5</v>
       </c>
@@ -7160,13 +7143,13 @@
         <v>EURFUT3MM5_STDDEV_94000#0000</v>
       </c>
     </row>
-    <row r="46" spans="2:39">
+    <row r="46" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="2:39" ht="12" thickBot="1">
+    <row r="47" spans="2:39" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
     </row>
-    <row r="48" spans="2:39" ht="13.5" thickBot="1">
+    <row r="48" spans="2:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="58" t="s">
         <v>22</v>
       </c>
@@ -7208,10 +7191,10 @@
       <c r="AL48" s="59"/>
       <c r="AM48" s="60"/>
     </row>
-    <row r="49" spans="2:39">
+    <row r="49" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B49" s="9"/>
     </row>
-    <row r="50" spans="2:39" ht="12" thickBot="1">
+    <row r="50" spans="2:39" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
       <c r="C50" s="47" t="s">
         <v>20</v>
@@ -7220,7 +7203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="2:39">
+    <row r="51" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C51" s="46" t="str">
         <f>Currency&amp;"_010_FuturesOptionQuotes"&amp;".xml"</f>
         <v>EUR_010_FuturesOptionQuotes.xml</v>
@@ -7265,7 +7248,7 @@
       <c r="AL51" s="31"/>
       <c r="AM51" s="32"/>
     </row>
-    <row r="52" spans="2:39">
+    <row r="52" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B52" s="50" t="str">
         <f>B21</f>
         <v>CALL</v>
@@ -7419,7 +7402,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:39">
+    <row r="53" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B53" s="53"/>
       <c r="C53" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C22)</f>
@@ -7570,7 +7553,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:39">
+    <row r="54" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B54" s="53"/>
       <c r="C54" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C23)</f>
@@ -7721,7 +7704,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:39">
+    <row r="55" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B55" s="53"/>
       <c r="C55" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C24)</f>
@@ -7872,7 +7855,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:39">
+    <row r="56" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B56" s="53"/>
       <c r="C56" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C25)</f>
@@ -8023,7 +8006,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:39">
+    <row r="57" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B57" s="53"/>
       <c r="C57" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C26)</f>
@@ -8174,7 +8157,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:39">
+    <row r="58" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B58" s="53"/>
       <c r="C58" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C27)</f>
@@ -8325,7 +8308,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:39">
+    <row r="59" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B59" s="55"/>
       <c r="C59" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(C28)</f>
@@ -8476,7 +8459,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:39">
+    <row r="60" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B60" s="50" t="str">
         <f>B29</f>
         <v>PUT</v>
@@ -8630,7 +8613,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:39">
+    <row r="61" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B61" s="53"/>
       <c r="C61" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C30)</f>
@@ -8781,7 +8764,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:39">
+    <row r="62" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B62" s="53"/>
       <c r="C62" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C31)</f>
@@ -8932,7 +8915,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:39">
+    <row r="63" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B63" s="53"/>
       <c r="C63" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C32)</f>
@@ -9083,7 +9066,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:39">
+    <row r="64" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B64" s="53"/>
       <c r="C64" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C33)</f>
@@ -9234,7 +9217,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:39">
+    <row r="65" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B65" s="53"/>
       <c r="C65" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C34)</f>
@@ -9385,7 +9368,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:39">
+    <row r="66" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B66" s="53"/>
       <c r="C66" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C35)</f>
@@ -9536,7 +9519,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:39">
+    <row r="67" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B67" s="55"/>
       <c r="C67" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(C36)</f>
@@ -9687,7 +9670,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:39">
+    <row r="68" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C68" s="46" t="str">
         <f>Currency&amp;"_020_FuturesOptionQuotes_"&amp;B37&amp;".xml"</f>
         <v>EUR_020_FuturesOptionQuotes_Impl _Vol.xml</v>
@@ -9732,7 +9715,7 @@
       <c r="AL68" s="48"/>
       <c r="AM68" s="49"/>
     </row>
-    <row r="69" spans="2:39">
+    <row r="69" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B69" s="50" t="str">
         <f>B37</f>
         <v>Impl _Vol</v>
@@ -9886,7 +9869,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:39">
+    <row r="70" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B70" s="53"/>
       <c r="C70" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C38)</f>
@@ -10037,7 +10020,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:39">
+    <row r="71" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B71" s="53"/>
       <c r="C71" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C39)</f>
@@ -10188,7 +10171,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:39">
+    <row r="72" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B72" s="53"/>
       <c r="C72" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C40)</f>
@@ -10339,7 +10322,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:39">
+    <row r="73" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B73" s="53"/>
       <c r="C73" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C41)</f>
@@ -10490,7 +10473,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:39">
+    <row r="74" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B74" s="53"/>
       <c r="C74" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C42)</f>
@@ -10641,7 +10624,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:39">
+    <row r="75" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B75" s="53"/>
       <c r="C75" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(C43)</f>
@@ -10792,7 +10775,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:39">
+    <row r="76" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B76" s="55"/>
       <c r="C76" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(C44)</f>

--- a/QuantLibXL/Data/XLS/030_CapVolBootstrap/010_Quotes/EUR_010_FuturesOptionQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/030_CapVolBootstrap/010_Quotes/EUR_010_FuturesOptionQuotes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Currency</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Additional Settings</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1201,8 +1198,9 @@
       <c r="C9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>24</v>
+      <c r="D9" s="16" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\030_CapVolBootstrap\010_Quotes\</v>
       </c>
       <c r="E9" s="67"/>
     </row>
@@ -7209,8 +7207,8 @@
         <v>EUR_010_FuturesOptionQuotes.xml</v>
       </c>
       <c r="D51" s="62" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(C21:AM36,SerializationPath&amp;C51,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(C21:AM36,SerializationPath&amp;C51,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E51" s="31"/>
       <c r="F51" s="31"/>
@@ -9676,8 +9674,8 @@
         <v>EUR_020_FuturesOptionQuotes_Impl _Vol.xml</v>
       </c>
       <c r="D68" s="62" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(C38:AM45,SerializationPath&amp;C68,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(C38:AM45,SerializationPath&amp;C68,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E68" s="48"/>
       <c r="F68" s="48"/>
